--- a/notes.xlsx
+++ b/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick_\Desktop\Learning Fuze\Bootcamp\Kaggle-House-Prices-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F2689F-D0F7-4294-B052-6B708A529287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3813DF-AF4B-4543-ABCA-47D23E8DEBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1042D572-AE82-4693-8F09-9A8510F7B89D}"/>
+    <workbookView xWindow="-19310" yWindow="3480" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{1042D572-AE82-4693-8F09-9A8510F7B89D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2427,10 +2427,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9A4616-09C7-44E2-90CC-EC097FA4580B}">
+  <sheetPr filterMode="1"/>
   <dimension ref="C2:V124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -2519,7 +2520,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="3:16">
+    <row r="7" spans="3:16" hidden="1">
       <c r="C7">
         <f>INDEX(Sheet2!$D$6:$E$86,MATCH(Sheet2!E11,Sheet2!$E$6:$E$86,0),1)</f>
         <v>5</v>
@@ -2550,7 +2551,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="8" spans="3:16">
+    <row r="8" spans="3:16" hidden="1">
       <c r="C8">
         <f>INDEX(Sheet2!$D$6:$E$86,MATCH(Sheet2!E12,Sheet2!$E$6:$E$86,0),1)</f>
         <v>6</v>
@@ -2578,7 +2579,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="3:16">
+    <row r="9" spans="3:16" hidden="1">
       <c r="C9" s="2">
         <f>INDEX(Sheet2!$D$6:$E$86,MATCH(Sheet2!E13,Sheet2!$E$6:$E$86,0),1)</f>
         <v>7</v>
@@ -2631,7 +2632,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="3:16">
+    <row r="11" spans="3:16" hidden="1">
       <c r="C11">
         <f>INDEX(Sheet2!$D$6:$E$86,MATCH(Sheet2!E15,Sheet2!$E$6:$E$86,0),1)</f>
         <v>9</v>
@@ -2659,7 +2660,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="3:16">
+    <row r="12" spans="3:16" hidden="1">
       <c r="C12" s="2">
         <f>INDEX(Sheet2!$D$6:$E$86,MATCH(Sheet2!E16,Sheet2!$E$6:$E$86,0),1)</f>
         <v>10</v>
@@ -2690,7 +2691,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="3:16">
+    <row r="13" spans="3:16" hidden="1">
       <c r="C13">
         <f>INDEX(Sheet2!$D$6:$E$86,MATCH(Sheet2!E17,Sheet2!$E$6:$E$86,0),1)</f>
         <v>11</v>
@@ -2718,7 +2719,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="3:16">
+    <row r="14" spans="3:16" hidden="1">
       <c r="C14">
         <f>INDEX(Sheet2!$D$6:$E$86,MATCH(Sheet2!E18,Sheet2!$E$6:$E$86,0),1)</f>
         <v>12</v>
@@ -2746,7 +2747,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="3:16">
+    <row r="15" spans="3:16" hidden="1">
       <c r="C15">
         <f>INDEX(Sheet2!$D$6:$E$86,MATCH(Sheet2!E19,Sheet2!$E$6:$E$86,0),1)</f>
         <v>13</v>
@@ -2778,7 +2779,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="16" spans="3:16">
+    <row r="16" spans="3:16" hidden="1">
       <c r="C16">
         <f>INDEX(Sheet2!$D$6:$E$86,MATCH(Sheet2!E20,Sheet2!$E$6:$E$86,0),1)</f>
         <v>14</v>
@@ -2806,7 +2807,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="3:11">
+    <row r="17" spans="3:11" hidden="1">
       <c r="C17">
         <f>INDEX(Sheet2!$D$6:$E$86,MATCH(Sheet2!E21,Sheet2!$E$6:$E$86,0),1)</f>
         <v>15</v>
@@ -2834,7 +2835,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="3:11">
+    <row r="18" spans="3:11" hidden="1">
       <c r="D18">
         <v>12</v>
       </c>
@@ -2858,7 +2859,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="3:11">
+    <row r="19" spans="3:11" hidden="1">
       <c r="D19">
         <v>13</v>
       </c>
@@ -2882,7 +2883,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="3:11">
+    <row r="20" spans="3:11" hidden="1">
       <c r="D20">
         <v>14</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="3:11">
+    <row r="21" spans="3:11" hidden="1">
       <c r="D21">
         <v>15</v>
       </c>
@@ -2930,7 +2931,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="3:11">
+    <row r="22" spans="3:11" hidden="1">
       <c r="D22">
         <v>16</v>
       </c>
@@ -3044,7 +3045,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="3:11">
+    <row r="27" spans="3:11" hidden="1">
       <c r="D27">
         <v>21</v>
       </c>
@@ -3068,7 +3069,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="3:11">
+    <row r="28" spans="3:11" hidden="1">
       <c r="D28">
         <v>22</v>
       </c>
@@ -3092,7 +3093,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="3:11">
+    <row r="29" spans="3:11" hidden="1">
       <c r="D29">
         <v>23</v>
       </c>
@@ -3116,7 +3117,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="3:11">
+    <row r="30" spans="3:11" hidden="1">
       <c r="D30">
         <v>24</v>
       </c>
@@ -3140,7 +3141,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="3:11">
+    <row r="31" spans="3:11" hidden="1">
       <c r="D31">
         <v>25</v>
       </c>
@@ -3167,7 +3168,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="3:11">
+    <row r="32" spans="3:11" hidden="1">
       <c r="D32">
         <v>26</v>
       </c>
@@ -3191,7 +3192,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="4:11">
+    <row r="33" spans="4:11" hidden="1">
       <c r="D33">
         <v>27</v>
       </c>
@@ -3215,7 +3216,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="34" spans="4:11">
+    <row r="34" spans="4:11" hidden="1">
       <c r="D34">
         <v>28</v>
       </c>
@@ -3239,7 +3240,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="4:11">
+    <row r="35" spans="4:11" hidden="1">
       <c r="D35">
         <v>29</v>
       </c>
@@ -3263,7 +3264,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="4:11">
+    <row r="36" spans="4:11" hidden="1">
       <c r="D36">
         <v>30</v>
       </c>
@@ -3290,7 +3291,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="4:11">
+    <row r="37" spans="4:11" hidden="1">
       <c r="D37">
         <v>31</v>
       </c>
@@ -3317,7 +3318,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="4:11">
+    <row r="38" spans="4:11" hidden="1">
       <c r="D38">
         <v>32</v>
       </c>
@@ -3344,7 +3345,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="4:11">
+    <row r="39" spans="4:11" hidden="1">
       <c r="D39">
         <v>33</v>
       </c>
@@ -3392,7 +3393,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="4:11">
+    <row r="41" spans="4:11" hidden="1">
       <c r="D41">
         <v>35</v>
       </c>
@@ -3482,7 +3483,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="4:11">
+    <row r="45" spans="4:11" hidden="1">
       <c r="D45">
         <v>39</v>
       </c>
@@ -3506,7 +3507,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="4:11">
+    <row r="46" spans="4:11" hidden="1">
       <c r="D46">
         <v>40</v>
       </c>
@@ -3530,7 +3531,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="4:11">
+    <row r="47" spans="4:11" hidden="1">
       <c r="D47">
         <v>41</v>
       </c>
@@ -3554,7 +3555,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="4:11">
+    <row r="48" spans="4:11" hidden="1">
       <c r="D48">
         <v>42</v>
       </c>
@@ -3791,7 +3792,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="4:22">
+    <row r="59" spans="4:22" hidden="1">
       <c r="D59">
         <v>53</v>
       </c>
@@ -3836,7 +3837,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="4:22">
+    <row r="61" spans="4:22" hidden="1">
       <c r="D61">
         <v>55</v>
       </c>
@@ -3905,7 +3906,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="4:22">
+    <row r="63" spans="4:22" hidden="1">
       <c r="D63">
         <v>57</v>
       </c>
@@ -3932,7 +3933,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="4:22">
+    <row r="64" spans="4:22" hidden="1">
       <c r="D64">
         <v>58</v>
       </c>
@@ -3959,7 +3960,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="4:11">
+    <row r="65" spans="4:11" hidden="1">
       <c r="D65">
         <v>59</v>
       </c>
@@ -3986,7 +3987,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="4:11">
+    <row r="66" spans="4:11" hidden="1">
       <c r="D66">
         <v>60</v>
       </c>
@@ -4055,7 +4056,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="4:11">
+    <row r="69" spans="4:11" hidden="1">
       <c r="D69">
         <v>63</v>
       </c>
@@ -4082,7 +4083,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="4:11">
+    <row r="70" spans="4:11" hidden="1">
       <c r="D70">
         <v>64</v>
       </c>
@@ -4109,7 +4110,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="4:11">
+    <row r="71" spans="4:11" hidden="1">
       <c r="D71">
         <v>65</v>
       </c>
@@ -4259,7 +4260,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="4:11">
+    <row r="78" spans="4:11" hidden="1">
       <c r="D78">
         <v>72</v>
       </c>
@@ -4286,7 +4287,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="4:11">
+    <row r="79" spans="4:11" hidden="1">
       <c r="D79">
         <v>73</v>
       </c>
@@ -4313,7 +4314,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="80" spans="4:11">
+    <row r="80" spans="4:11" hidden="1">
       <c r="D80">
         <v>74</v>
       </c>
@@ -4409,7 +4410,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="3:19">
+    <row r="84" spans="3:19" hidden="1">
       <c r="C84" t="s">
         <v>103</v>
       </c>
@@ -4436,7 +4437,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="85" spans="3:19">
+    <row r="85" spans="3:19" hidden="1">
       <c r="C85" t="s">
         <v>104</v>
       </c>
@@ -4463,7 +4464,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="3:19">
+    <row r="86" spans="3:19" hidden="1">
       <c r="C86" t="s">
         <v>105</v>
       </c>
@@ -4709,7 +4710,20 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D5:K86" xr:uid="{FF9A4616-09C7-44E2-90CC-EC097FA4580B}"/>
+  <autoFilter ref="D5:K86" xr:uid="{FF9A4616-09C7-44E2-90CC-EC097FA4580B}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Numeric"/>
+        <filter val="Numeric - Ordinal"/>
+        <filter val="Numeric-Year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
